--- a/2-local-search/local-search-results/ACO/gaps/GAPs_for_ACO_with_length_L_reinsertion.xlsx
+++ b/2-local-search/local-search-results/ACO/gaps/GAPs_for_ACO_with_length_L_reinsertion.xlsx
@@ -485,10 +485,10 @@
         <v>228.2186806126433</v>
       </c>
       <c r="G2" t="n">
-        <v>0.712247952618004</v>
+        <v>0.7122479526180042</v>
       </c>
       <c r="H2" t="n">
-        <v>7008.015720844269</v>
+        <v>7052</v>
       </c>
     </row>
     <row r="3">
@@ -510,13 +510,13 @@
         <v>184.187</v>
       </c>
       <c r="F3" t="n">
-        <v>215.5425652768938</v>
+        <v>257.2798131268552</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1702376675709672</v>
+        <v>0.3968402391420416</v>
       </c>
       <c r="H3" t="n">
-        <v>8103.014497518539</v>
+        <v>8673.006939649582</v>
       </c>
     </row>
     <row r="4">
@@ -538,13 +538,13 @@
         <v>399.722</v>
       </c>
       <c r="F4" t="n">
-        <v>627.1327113946154</v>
+        <v>627.1327113946153</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5689221794012225</v>
+        <v>0.5689221794012221</v>
       </c>
       <c r="H4" t="n">
-        <v>6532</v>
+        <v>6279</v>
       </c>
     </row>
     <row r="5">
@@ -566,13 +566,13 @@
         <v>314.469</v>
       </c>
       <c r="F5" t="n">
-        <v>538.9994621949588</v>
+        <v>531.00633860912</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7139987159146334</v>
+        <v>0.6885808731834299</v>
       </c>
       <c r="H5" t="n">
-        <v>7263.009517431259</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="6">
@@ -585,22 +585,22 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E6" t="n">
         <v>162.712</v>
       </c>
       <c r="F6" t="n">
-        <v>539.3867239342666</v>
+        <v>545.3970263922624</v>
       </c>
       <c r="G6" t="n">
-        <v>2.314978145030893</v>
+        <v>2.351916431438754</v>
       </c>
       <c r="H6" t="n">
-        <v>6921</v>
+        <v>6970.001604557037</v>
       </c>
     </row>
     <row r="7">
@@ -622,13 +622,13 @@
         <v>189.481</v>
       </c>
       <c r="F7" t="n">
-        <v>445.0360448855213</v>
+        <v>442.6453338076061</v>
       </c>
       <c r="G7" t="n">
-        <v>1.348710661678592</v>
+        <v>1.336093507040844</v>
       </c>
       <c r="H7" t="n">
-        <v>7292</v>
+        <v>7356</v>
       </c>
     </row>
     <row r="8">
@@ -650,13 +650,13 @@
         <v>252.397</v>
       </c>
       <c r="F8" t="n">
-        <v>447.4702141567193</v>
+        <v>440.2779071838698</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7728824596041922</v>
+        <v>0.7443864514390813</v>
       </c>
       <c r="H8" t="n">
-        <v>24184.01152014732</v>
+        <v>24804.02427196503</v>
       </c>
     </row>
     <row r="9">
@@ -669,22 +669,22 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>306.019</v>
       </c>
       <c r="F9" t="n">
-        <v>385.3186374099197</v>
+        <v>421.8012363372004</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2591330519017436</v>
+        <v>0.3783498290537529</v>
       </c>
       <c r="H9" t="n">
-        <v>33268.01662898064</v>
+        <v>37121.04991292953</v>
       </c>
     </row>
     <row r="10">
@@ -706,13 +706,13 @@
         <v>623.861</v>
       </c>
       <c r="F10" t="n">
-        <v>1149.564241313293</v>
+        <v>1161.88738402932</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8426608512365623</v>
+        <v>0.8624138774972633</v>
       </c>
       <c r="H10" t="n">
-        <v>20384.00302624702</v>
+        <v>21122.01151800156</v>
       </c>
     </row>
     <row r="11">
@@ -734,13 +734,13 @@
         <v>512.907</v>
       </c>
       <c r="F11" t="n">
-        <v>991.4632545224342</v>
+        <v>981.6017995346984</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9330273412576435</v>
+        <v>0.9138007465967483</v>
       </c>
       <c r="H11" t="n">
-        <v>26977.01051306725</v>
+        <v>26551.01001834869</v>
       </c>
     </row>
     <row r="12">
@@ -753,22 +753,22 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="E12" t="n">
         <v>299.824</v>
       </c>
       <c r="F12" t="n">
-        <v>1154.713928393526</v>
+        <v>1120.627689600493</v>
       </c>
       <c r="G12" t="n">
-        <v>2.851305860750061</v>
+        <v>2.737618368110935</v>
       </c>
       <c r="H12" t="n">
-        <v>21488</v>
+        <v>21399</v>
       </c>
     </row>
     <row r="13">
@@ -781,22 +781,22 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
+        <v>7</v>
+      </c>
+      <c r="D13" t="n">
         <v>6</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5</v>
       </c>
       <c r="E13" t="n">
         <v>252.25</v>
       </c>
       <c r="F13" t="n">
-        <v>1050.478490990224</v>
+        <v>974.7679797252653</v>
       </c>
       <c r="G13" t="n">
-        <v>3.164434057443902</v>
+        <v>2.864293279386582</v>
       </c>
       <c r="H13" t="n">
-        <v>25274.01153278351</v>
+        <v>25528.0011651516</v>
       </c>
     </row>
     <row r="14">
@@ -809,22 +809,22 @@
         <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E14" t="n">
         <v>549.659</v>
       </c>
       <c r="F14" t="n">
-        <v>1074.309945034737</v>
+        <v>1069.244920653671</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9545026007665417</v>
+        <v>0.9452877523222061</v>
       </c>
       <c r="H14" t="n">
-        <v>87587.07586669922</v>
+        <v>88009.00379490852</v>
       </c>
     </row>
     <row r="15">
@@ -837,22 +837,22 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E15" t="n">
         <v>529.193</v>
       </c>
       <c r="F15" t="n">
-        <v>872.7823172199389</v>
+        <v>949.7616186880748</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6492703365689625</v>
+        <v>0.7947357933458584</v>
       </c>
       <c r="H15" t="n">
-        <v>174060.0654294491</v>
+        <v>163632.0238866806</v>
       </c>
     </row>
     <row r="16">
@@ -874,13 +874,13 @@
         <v>872.746</v>
       </c>
       <c r="F16" t="n">
-        <v>1889.922251859146</v>
+        <v>1983.758559684265</v>
       </c>
       <c r="G16" t="n">
-        <v>1.165489445794247</v>
+        <v>1.273007908010195</v>
       </c>
       <c r="H16" t="n">
-        <v>73668</v>
+        <v>73173</v>
       </c>
     </row>
     <row r="17">
@@ -893,22 +893,22 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
         <v>684.174</v>
       </c>
       <c r="F17" t="n">
-        <v>1648.788519376151</v>
+        <v>1569.287010156544</v>
       </c>
       <c r="G17" t="n">
-        <v>1.409896487408395</v>
+        <v>1.293695770603011</v>
       </c>
       <c r="H17" t="n">
-        <v>109008.0164177418</v>
+        <v>115320.031252861</v>
       </c>
     </row>
     <row r="18">
@@ -930,13 +930,13 @@
         <v>665.3440000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>2126.604289223139</v>
+        <v>2159.054537392367</v>
       </c>
       <c r="G18" t="n">
-        <v>2.196247789448976</v>
+        <v>2.245019925620983</v>
       </c>
       <c r="H18" t="n">
-        <v>77100</v>
+        <v>77210</v>
       </c>
     </row>
     <row r="19">
@@ -958,13 +958,13 @@
         <v>628.503</v>
       </c>
       <c r="F19" t="n">
-        <v>1838.993142297435</v>
+        <v>1798.274960361695</v>
       </c>
       <c r="G19" t="n">
-        <v>1.925989442051089</v>
+        <v>1.861203463407008</v>
       </c>
       <c r="H19" t="n">
-        <v>101485.0105183125</v>
+        <v>103949.0156197548</v>
       </c>
     </row>
   </sheetData>
